--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/e51905700_student_tuwien_ac_at/Documents/tuwien/master_thesis/experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gallushuber/git_proj/Huber.ER2CDS/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="547" documentId="8_{881C5D06-CF3F-6140-99DA-C1E685B68144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E55B0406-047B-A04C-A5DB-A6EFC3F84CAF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904B525F-A510-4F44-BBD0-AFC35B11EE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="1720" windowWidth="35640" windowHeight="23660" activeTab="1" xr2:uid="{AB73C851-2570-4848-9E24-9A6016711A1A}"/>
+    <workbookView xWindow="7520" yWindow="1720" windowWidth="35640" windowHeight="23660" xr2:uid="{AB73C851-2570-4848-9E24-9A6016711A1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="157">
   <si>
     <t>/DMO/I_Travel_D</t>
   </si>
@@ -93,21 +93,9 @@
     <t>/DMO/I_Travel_Status_VH_Text</t>
   </si>
   <si>
-    <t>Z_I_CRHD</t>
-  </si>
-  <si>
     <t>Z_I_MKPF</t>
   </si>
   <si>
-    <t>Z_I_MSEG</t>
-  </si>
-  <si>
-    <t>Z_I_PLAF</t>
-  </si>
-  <si>
-    <t>Z_I_MARC</t>
-  </si>
-  <si>
     <t>Z_I_DELIVANALYSIS</t>
   </si>
   <si>
@@ -120,9 +108,6 @@
     <t>Z_I_BESTELLANFORDERUNG</t>
   </si>
   <si>
-    <t>Z_I_SERNR_KDAUF_FAUF</t>
-  </si>
-  <si>
     <t>Z_I_SDSERIALNUMBER</t>
   </si>
   <si>
@@ -333,9 +318,6 @@
     <t>Output</t>
   </si>
   <si>
-    <t>Format</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -442,13 +424,97 @@
   </si>
   <si>
     <t>Upper/Lowercase of alias in from clause.</t>
+  </si>
+  <si>
+    <t>I_ACMSettlmtCtnHdrCostRevCkpt</t>
+  </si>
+  <si>
+    <t>I_MobileUserSession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Join Clause in different order. </t>
+  </si>
+  <si>
+    <t>I_MDOFIELD</t>
+  </si>
+  <si>
+    <t>Association in different order. Tabelprefix on attributes.</t>
+  </si>
+  <si>
+    <t>Join Clause in different order. Tableprefix on attributes.</t>
+  </si>
+  <si>
+    <t>I_FinSubstitutionRuleSubstnTP</t>
+  </si>
+  <si>
+    <t>Tableprefix on attributes.</t>
+  </si>
+  <si>
+    <t>I_FieldLogisticsSupplier</t>
+  </si>
+  <si>
+    <t>Attributes of subassociation missing. Where-Clause missing.</t>
+  </si>
+  <si>
+    <t>I_BkPOABankAccount</t>
+  </si>
+  <si>
+    <t>I_BusPartMobileNumberGovTP</t>
+  </si>
+  <si>
+    <t>Tableprefix on attributes. Reexport of subassociation missing. Where-Clause missing.</t>
+  </si>
+  <si>
+    <t>I_BPRelshpCntctPersnEmlAddrTP</t>
+  </si>
+  <si>
+    <t>Attributes of subassociation missing. Reexport of subassociation missing.</t>
+  </si>
+  <si>
+    <t>I_SourcingProject</t>
+  </si>
+  <si>
+    <t>Multiple association to same table not working. Cast/Concat not supported. Specific export of assocations.</t>
+  </si>
+  <si>
+    <t>I_ProdnRtgOperationTP</t>
+  </si>
+  <si>
+    <t>Join Clause only equals. Where-Clause missing. Join Clause on fix values not supported.</t>
+  </si>
+  <si>
+    <t>Inner join instead of Join (equivalent).</t>
+  </si>
+  <si>
+    <t>Association with explicit min, max and $projection (equivalent).</t>
+  </si>
+  <si>
+    <t>Z_I_SERIALNMBRDELIVERY</t>
+  </si>
+  <si>
+    <t>Z_I_AUSSENLAGER</t>
+  </si>
+  <si>
+    <t>Inner join instead of Join (equivalent). Join Clause different order.</t>
+  </si>
+  <si>
+    <t>Inner join instead of Join (equivalent). Join Clause in different order.</t>
+  </si>
+  <si>
+    <t>Inner join instead of Join (equivalent). Association with min, max and $projection (equivalent).</t>
+  </si>
+  <si>
+    <t>Z_I_Notification</t>
+  </si>
+  <si>
+    <t>Z_I_CHANGEDOCUMENTITEM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -475,6 +541,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -496,10 +570,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,14 +667,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E073B26E-32AF-5C4E-B08C-DB3284897244}" name="Table2" displayName="Table2" ref="A1:E13" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:E13" xr:uid="{E073B26E-32AF-5C4E-B08C-DB3284897244}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E073B26E-32AF-5C4E-B08C-DB3284897244}" name="Table2" displayName="Table2" ref="A1:E21" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:E21" xr:uid="{E073B26E-32AF-5C4E-B08C-DB3284897244}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F9DADB49-9E36-4445-8133-ABDB69FA8F28}" name="Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{613C137D-B3C7-D04E-9099-6B9913178B57}" name="Relations"/>
     <tableColumn id="3" xr3:uid="{A224C5CE-8087-2248-919C-820DCD052F2A}" name="Syntax"/>
     <tableColumn id="4" xr3:uid="{84D5766F-5980-E54C-924A-B5E993FA9B1F}" name="Output"/>
-    <tableColumn id="5" xr3:uid="{F1682162-D935-E342-83BE-4A14D8D1AA95}" name="Format"/>
+    <tableColumn id="6" xr3:uid="{015383A4-202E-814F-96B5-E37F45DDEB57}" name="Text"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -939,88 +1017,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4672D2B8-471A-1F4B-AB68-DDF5C0CFA150}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="88.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>156</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>151</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>155</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>129</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1035,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F650F4-ED0B-E44F-A328-2BD491C06275}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1051,28 +1388,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1086,10 +1423,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1103,10 +1440,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1120,10 +1457,10 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1137,10 +1474,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1154,10 +1491,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1171,10 +1508,10 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1188,10 +1525,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1205,10 +1542,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1222,10 +1559,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1239,10 +1576,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1256,10 +1593,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1273,10 +1610,10 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1290,10 +1627,10 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1307,10 +1644,10 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1324,10 +1661,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1341,10 +1678,10 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1358,10 +1695,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1375,15 +1712,15 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1392,15 +1729,15 @@
         <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1409,15 +1746,15 @@
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1426,15 +1763,15 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1443,15 +1780,15 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1460,15 +1797,15 @@
         <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1477,15 +1814,15 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1494,15 +1831,15 @@
         <v>143</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1511,15 +1848,15 @@
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -1528,15 +1865,15 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1545,15 +1882,15 @@
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -1562,21 +1899,21 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H30" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B31">
         <v>13</v>
@@ -1585,15 +1922,15 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -1602,15 +1939,15 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1619,15 +1956,15 @@
         <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -1636,15 +1973,15 @@
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1653,18 +1990,18 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1673,15 +2010,15 @@
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1690,21 +2027,21 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H37" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B38">
         <v>19</v>
@@ -1713,18 +2050,18 @@
         <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -1733,15 +2070,15 @@
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -1750,15 +2087,15 @@
         <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -1767,15 +2104,15 @@
         <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -1784,21 +2121,21 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" t="s">
         <v>99</v>
       </c>
-      <c r="E42" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" t="s">
-        <v>105</v>
-      </c>
       <c r="H42" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -1807,15 +2144,15 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -1824,15 +2161,15 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1841,15 +2178,15 @@
         <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -1858,15 +2195,15 @@
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -1875,15 +2212,15 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -1892,21 +2229,21 @@
         <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H48" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -1915,21 +2252,21 @@
         <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H49" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -1938,15 +2275,15 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -1955,15 +2292,15 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -1972,15 +2309,15 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -1989,15 +2326,15 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -2006,15 +2343,15 @@
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -2023,15 +2360,15 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2040,15 +2377,15 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -2057,15 +2394,15 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -2074,15 +2411,15 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -2091,15 +2428,15 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -2108,15 +2445,15 @@
         <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -2125,15 +2462,15 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E61" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -2142,15 +2479,15 @@
         <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B63">
         <v>30</v>
@@ -2159,21 +2496,21 @@
         <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F63" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2182,15 +2519,15 @@
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2199,15 +2536,15 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2216,15 +2553,15 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2233,15 +2570,15 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E67" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -2250,15 +2587,15 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E68" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2267,15 +2604,15 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2284,15 +2621,15 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2301,15 +2638,15 @@
         <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E71" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2318,15 +2655,15 @@
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2335,15 +2672,15 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E73" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -2352,15 +2689,15 @@
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E74" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B75">
         <v>12</v>
@@ -2369,15 +2706,15 @@
         <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B76">
         <v>15</v>
@@ -2386,15 +2723,15 @@
         <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E76" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2403,15 +2740,15 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B78">
         <v>10</v>
@@ -2420,15 +2757,15 @@
         <v>132</v>
       </c>
       <c r="D78" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E78" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B79">
         <v>10</v>
@@ -2437,18 +2774,18 @@
         <v>29</v>
       </c>
       <c r="D79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -2457,21 +2794,21 @@
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E80" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H80" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -2480,15 +2817,15 @@
         <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E81" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B82">
         <v>9</v>
@@ -2497,18 +2834,18 @@
         <v>167</v>
       </c>
       <c r="D82" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E82" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B83">
         <v>26</v>
@@ -2517,18 +2854,18 @@
         <v>92</v>
       </c>
       <c r="D83" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E83" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F83" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2537,18 +2874,18 @@
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E84" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F84" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -2557,15 +2894,15 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -2574,15 +2911,15 @@
         <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E86" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -2591,15 +2928,15 @@
         <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -2608,15 +2945,15 @@
         <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2625,15 +2962,15 @@
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -2642,15 +2979,15 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -2659,15 +2996,15 @@
         <v>223</v>
       </c>
       <c r="D91" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E91" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -2676,15 +3013,15 @@
         <v>94</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -2693,15 +3030,15 @@
         <v>325</v>
       </c>
       <c r="D93" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E93" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -2710,15 +3047,15 @@
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -2727,15 +3064,15 @@
         <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E95" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -2744,21 +3081,21 @@
         <v>121</v>
       </c>
       <c r="D96" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E96" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F96" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H96" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2767,15 +3104,15 @@
         <v>21</v>
       </c>
       <c r="D97" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -2784,15 +3121,15 @@
         <v>60</v>
       </c>
       <c r="D98" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E98" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -2801,15 +3138,15 @@
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E99" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>8</v>
@@ -2818,15 +3155,15 @@
         <v>44</v>
       </c>
       <c r="D100" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E100" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -2835,10 +3172,10 @@
         <v>36</v>
       </c>
       <c r="D101" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E101" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gallushuber/git_proj/Huber.ER2CDS/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904B525F-A510-4F44-BBD0-AFC35B11EE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C35BD3-EFCE-004C-9F5C-9B8094B4BEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7520" yWindow="1720" windowWidth="35640" windowHeight="23660" xr2:uid="{AB73C851-2570-4848-9E24-9A6016711A1A}"/>
   </bookViews>
@@ -432,24 +432,12 @@
     <t>I_MobileUserSession</t>
   </si>
   <si>
-    <t xml:space="preserve">Join Clause in different order. </t>
-  </si>
-  <si>
     <t>I_MDOFIELD</t>
   </si>
   <si>
-    <t>Association in different order. Tabelprefix on attributes.</t>
-  </si>
-  <si>
-    <t>Join Clause in different order. Tableprefix on attributes.</t>
-  </si>
-  <si>
     <t>I_FinSubstitutionRuleSubstnTP</t>
   </si>
   <si>
-    <t>Tableprefix on attributes.</t>
-  </si>
-  <si>
     <t>I_FieldLogisticsSupplier</t>
   </si>
   <si>
@@ -462,9 +450,6 @@
     <t>I_BusPartMobileNumberGovTP</t>
   </si>
   <si>
-    <t>Tableprefix on attributes. Reexport of subassociation missing. Where-Clause missing.</t>
-  </si>
-  <si>
     <t>I_BPRelshpCntctPersnEmlAddrTP</t>
   </si>
   <si>
@@ -495,12 +480,6 @@
     <t>Z_I_AUSSENLAGER</t>
   </si>
   <si>
-    <t>Inner join instead of Join (equivalent). Join Clause different order.</t>
-  </si>
-  <si>
-    <t>Inner join instead of Join (equivalent). Join Clause in different order.</t>
-  </si>
-  <si>
     <t>Inner join instead of Join (equivalent). Association with min, max and $projection (equivalent).</t>
   </si>
   <si>
@@ -508,6 +487,27 @@
   </si>
   <si>
     <t>Z_I_CHANGEDOCUMENTITEM</t>
+  </si>
+  <si>
+    <t>Tableprefix on attributes (equivalent).</t>
+  </si>
+  <si>
+    <t>Inner join instead of Join (equivalent). Join Clause different order (equivalent).</t>
+  </si>
+  <si>
+    <t>Inner join instead of Join (equivalent). Join Clause in different order (equivalent).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Join Clause in different order (equivalent). </t>
+  </si>
+  <si>
+    <t>Join Clause in different order (equivalent). Tableprefix on attributes (equivalent).</t>
+  </si>
+  <si>
+    <t>Association in different order (equivalent). Tabelprefix on attributes (equivalent).</t>
+  </si>
+  <si>
+    <t>Tableprefix on attributes (equivalent). Reexport of subassociation missing. Where-Clause missing.</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,12 +1075,12 @@
         <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1092,12 +1092,12 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1137,7 +1137,7 @@
         <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1154,12 +1154,12 @@
         <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1171,7 +1171,7 @@
         <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1188,12 +1188,12 @@
         <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B11">
         <v>19</v>
@@ -1219,7 +1219,7 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1236,12 +1236,12 @@
         <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1253,12 +1253,12 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1270,12 +1270,12 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1284,12 +1284,12 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1301,12 +1301,12 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -1315,12 +1315,12 @@
         <v>93</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -1329,12 +1329,12 @@
         <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -1343,12 +1343,12 @@
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B21">
         <v>23</v>
@@ -1357,7 +1357,7 @@
         <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F650F4-ED0B-E44F-A328-2BD491C06275}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
